--- a/30_KnowHow/CSS/CSS usage summary.xlsx
+++ b/30_KnowHow/CSS/CSS usage summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common_CSS Archi" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="461">
   <si>
     <t>&lt;a href="/" class="trans"&gt;经过我~~&lt;/a&gt;</t>
   </si>
@@ -7369,13 +7369,49 @@
   </si>
   <si>
     <t>display: none;</t>
+  </si>
+  <si>
+    <t>@charset "utf-8";</t>
+  </si>
+  <si>
+    <t>/* mod 障害対応No:2531 by jianwu.zhang 2015/12/05 Start*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display: none;</t>
+  </si>
+  <si>
+    <t>19  selectBox下拉框的非表示。</t>
+  </si>
+  <si>
+    <r>
+      <t>#container_child select::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>-ms-expand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7600,6 +7636,13 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
@@ -10053,7 +10096,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10462,7 +10505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -10793,10 +10836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B150"/>
+  <dimension ref="B2:B159"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11470,9 +11513,40 @@
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="24"/>
     </row>
+    <row r="152" spans="2:2" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B152" s="22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11481,8 +11555,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11648,7 +11722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L305"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A286" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12368,8 +12442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,8 +12788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12828,7 +12902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
